--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_1.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_2_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1541398.209209591</v>
+        <v>-1488542.895136943</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17440984.00909675</v>
+        <v>16794960.12241027</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10658015.83362632</v>
+        <v>10653022.27075734</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>363.1565163655268</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>14.10564691157604</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>225.9763411359356</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>43.23556789030481</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -883,7 +883,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>114.7102695165444</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>329.9041245198143</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>358.3792131494172</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>7.355501256809367</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
@@ -1120,7 +1120,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>173.5591556145158</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>308.3086748172354</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>278.8311082753239</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
@@ -1148,10 +1148,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1309,7 +1309,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>39.59754480244057</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>110.2564737593037</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1370,7 +1370,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1382,13 +1382,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>103.1341689345165</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791311417</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,16 +1421,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.866554855693</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1537,13 +1537,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>14.14416275345333</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1582,10 +1582,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
-        <v>260.4356504767625</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
@@ -1610,13 +1610,13 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791324361</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1661,10 +1661,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561544</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1765,22 +1765,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>39.59754480243593</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>164.2192128704967</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>160.78849649501</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1901,10 +1901,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655127</v>
       </c>
       <c r="W17" t="n">
-        <v>400.8069000430781</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2065,7 +2065,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>239.7909713904958</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2093,7 +2093,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
@@ -2242,7 +2242,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>3.42339212608458</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2485,7 +2485,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>116.2712455521792</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2722,16 +2722,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>160.788496495006</v>
+        <v>90.30617524481251</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2953,7 +2953,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>52.79556056590975</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2962,13 +2962,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>173.6647221930499</v>
+        <v>173.6647221930498</v>
       </c>
       <c r="C34" t="n">
-        <v>154.60038406286</v>
+        <v>154.6003840628599</v>
       </c>
       <c r="D34" t="n">
-        <v>147.9835025317452</v>
+        <v>147.9835025317451</v>
       </c>
       <c r="E34" t="n">
-        <v>151.8247133730228</v>
+        <v>151.8247133730227</v>
       </c>
       <c r="F34" t="n">
-        <v>158.704273159114</v>
+        <v>158.7042731591139</v>
       </c>
       <c r="G34" t="n">
-        <v>147.6996518856833</v>
+        <v>147.6996518856832</v>
       </c>
       <c r="H34" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I34" t="n">
-        <v>71.53763939432406</v>
+        <v>71.537639394324</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.96793274293449</v>
+        <v>4.96793274293444</v>
       </c>
       <c r="S34" t="n">
-        <v>141.413244676236</v>
+        <v>141.4132446762359</v>
       </c>
       <c r="T34" t="n">
         <v>227.1849416185819</v>
@@ -3253,7 +3253,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y34" t="n">
-        <v>208.9097636402855</v>
+        <v>208.9097636402854</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>405.8008644413113</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>417.5253377496635</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>415.3149766385525</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>413.2012870545404</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>407.353044956137</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>381.1481427242214</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>270.0031426724685</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>66.57964473925401</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>201.6308445169444</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>240.3943693174059</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>342.7550702267644</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>384.5711897043296</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>398.7153284477363</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>387.9675521245957</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.6647221930498</v>
+        <v>173.6647221930499</v>
       </c>
       <c r="C37" t="n">
-        <v>154.6003840628599</v>
+        <v>154.60038406286</v>
       </c>
       <c r="D37" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E37" t="n">
-        <v>151.8247133730227</v>
+        <v>151.8247133730228</v>
       </c>
       <c r="F37" t="n">
-        <v>158.7042731591139</v>
+        <v>158.7042731591129</v>
       </c>
       <c r="G37" t="n">
-        <v>147.6996518856832</v>
+        <v>147.6996518856833</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277818</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432403</v>
+        <v>71.53763939432406</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934455</v>
+        <v>4.96793274293449</v>
       </c>
       <c r="S37" t="n">
-        <v>141.4132446762359</v>
+        <v>141.413244676236</v>
       </c>
       <c r="T37" t="n">
         <v>227.1849416185819</v>
@@ -3490,7 +3490,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.9097636402854</v>
+        <v>208.9097636402855</v>
       </c>
     </row>
     <row r="38">
@@ -3667,16 +3667,16 @@
         <v>147.9835025317452</v>
       </c>
       <c r="E40" t="n">
-        <v>151.8247133730227</v>
+        <v>151.8247133730228</v>
       </c>
       <c r="F40" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G40" t="n">
-        <v>147.6996518856832</v>
+        <v>147.6996518856833</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277807</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I40" t="n">
         <v>71.53763939432406</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934483</v>
+        <v>4.96793274293449</v>
       </c>
       <c r="S40" t="n">
-        <v>141.4132446762359</v>
+        <v>141.413244676236</v>
       </c>
       <c r="T40" t="n">
         <v>227.1849416185819</v>
@@ -3898,22 +3898,22 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C43" t="n">
-        <v>154.6003840628599</v>
+        <v>154.60038406286</v>
       </c>
       <c r="D43" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E43" t="n">
-        <v>151.8247133730227</v>
+        <v>151.8247133730228</v>
       </c>
       <c r="F43" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G43" t="n">
-        <v>147.6996518856832</v>
+        <v>147.6996518856833</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277807</v>
       </c>
       <c r="I43" t="n">
         <v>71.53763939432406</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.96793274293448</v>
+        <v>4.96793274293449</v>
       </c>
       <c r="S43" t="n">
-        <v>141.4132446762359</v>
+        <v>141.413244676236</v>
       </c>
       <c r="T43" t="n">
         <v>227.1849416185819</v>
@@ -3964,7 +3964,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.9097636402854</v>
+        <v>208.9097636402855</v>
       </c>
     </row>
     <row r="44">
@@ -4135,19 +4135,19 @@
         <v>173.6647221930499</v>
       </c>
       <c r="C46" t="n">
-        <v>154.6003840628599</v>
+        <v>154.60038406286</v>
       </c>
       <c r="D46" t="n">
         <v>147.9835025317452</v>
       </c>
       <c r="E46" t="n">
-        <v>151.8247133730227</v>
+        <v>151.8247133730228</v>
       </c>
       <c r="F46" t="n">
         <v>158.704273159114</v>
       </c>
       <c r="G46" t="n">
-        <v>147.6996518856832</v>
+        <v>147.6996518856833</v>
       </c>
       <c r="H46" t="n">
         <v>122.2674422277819</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.96793274293448</v>
+        <v>4.96793274293449</v>
       </c>
       <c r="S46" t="n">
-        <v>141.4132446762359</v>
+        <v>141.413244676236</v>
       </c>
       <c r="T46" t="n">
         <v>227.1849416185819</v>
@@ -4201,7 +4201,7 @@
         <v>226.7021267811743</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.9097636402854</v>
+        <v>208.9097636402855</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>446.8859415858535</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C2" t="n">
-        <v>446.8859415858535</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D2" t="n">
-        <v>415.0165608007021</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E2" t="n">
-        <v>415.0165608007021</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F2" t="n">
-        <v>48.1917967951195</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
         <v>33.94366860160834</v>
@@ -4334,22 +4334,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N2" t="n">
-        <v>1294.102365436318</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O2" t="n">
-        <v>1697.183430080417</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
-        <v>1697.183430080417</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
@@ -4361,19 +4361,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.327975491451</v>
+        <v>670.4887227422939</v>
       </c>
       <c r="X2" t="n">
-        <v>873.1855120707613</v>
+        <v>442.2297923019549</v>
       </c>
       <c r="Y2" t="n">
-        <v>873.1855120707613</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="3">
@@ -4404,28 +4404,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L3" t="n">
-        <v>384.5656667282782</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M3" t="n">
-        <v>384.5656667282782</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="O3" t="n">
-        <v>1224.671464618085</v>
+        <v>739.9048540962709</v>
       </c>
       <c r="P3" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>604.8041211489747</v>
+        <v>247.3739631491588</v>
       </c>
       <c r="C4" t="n">
-        <v>604.8041211489747</v>
+        <v>247.3739631491588</v>
       </c>
       <c r="D4" t="n">
-        <v>604.8041211489747</v>
+        <v>203.7016723508711</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>68.8461756808652</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>343.6046302520008</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>761.8145120199619</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="M4" t="n">
-        <v>761.8145120199619</v>
+        <v>341.7616130750586</v>
       </c>
       <c r="N4" t="n">
         <v>761.8145120199619</v>
@@ -4516,22 +4516,22 @@
         <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1516.524240083786</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1238.091239336891</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>1238.091239336891</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="W4" t="n">
-        <v>966.0648349231828</v>
+        <v>720.185388501638</v>
       </c>
       <c r="X4" t="n">
-        <v>720.6730802565953</v>
+        <v>474.7936338350505</v>
       </c>
       <c r="Y4" t="n">
-        <v>604.8041211489747</v>
+        <v>247.3739631491588</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1250.721030006719</v>
+        <v>1201.501429428291</v>
       </c>
       <c r="C5" t="n">
-        <v>822.1393557439874</v>
+        <v>763.3589566117141</v>
       </c>
       <c r="D5" t="n">
-        <v>488.9028663300335</v>
+        <v>731.4895758265627</v>
       </c>
       <c r="E5" t="n">
-        <v>459.1685255287327</v>
+        <v>701.755235025262</v>
       </c>
       <c r="F5" t="n">
-        <v>435.3414999783445</v>
+        <v>339.7560298238305</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>339.7560298238305</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704676</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704676</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>50.62587526704676</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>50.62587526704676</v>
       </c>
       <c r="L5" t="n">
-        <v>874.0494664914149</v>
+        <v>50.62587526704676</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>50.62587526704676</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>562.6504997812791</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1189.145706210983</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1815.640912640686</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2362.139698599281</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352338</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352338</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2311.226536225377</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2052.004233542393</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2052.004233542393</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2051.18918299383</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>1632.046719573141</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>1223.760595872795</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.7976202583395</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.3411590949818</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.2508702415351</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>261.1304555684888</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.7466171846504</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.36152745083429</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704676</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>50.62587526704676</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>50.62587526704676</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>50.62587526704676</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>50.62587526704676</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>50.62587526704676</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>50.62587526704676</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>429.4587135897368</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.95392001944</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.692858651516</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.865636745856</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.410199194239</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.23155552484</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.895008524809</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.777490586808</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.454736320002</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.5873005588819</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>678.1015213381027</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.94366860160834</v>
+        <v>787.0989890422071</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>614.537277525432</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>614.537277525432</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>444.7792737761692</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>444.7792737761692</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>279.1879988019969</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.2858244923714</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.62587526704676</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>137.2055604317366</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>411.9640150028722</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>694.1821749533249</v>
       </c>
       <c r="M7" t="n">
-        <v>872.2064493144727</v>
+        <v>1153.666042134238</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1595.924845291882</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2015.594094517664</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2363.100988488005</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2531.293763352338</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2509.87594205771</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2350.634573355706</v>
       </c>
       <c r="T7" t="n">
-        <v>1292.062614956869</v>
+        <v>2104.755126934162</v>
       </c>
       <c r="U7" t="n">
-        <v>1013.629614209975</v>
+        <v>1826.322126187267</v>
       </c>
       <c r="V7" t="n">
-        <v>726.6741060804052</v>
+        <v>1539.366618057697</v>
       </c>
       <c r="W7" t="n">
-        <v>454.6477016666967</v>
+        <v>1267.340213643989</v>
       </c>
       <c r="X7" t="n">
-        <v>209.2559470001092</v>
+        <v>1021.948458977401</v>
       </c>
       <c r="Y7" t="n">
-        <v>33.94366860160834</v>
+        <v>794.5287882915095</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.4764845146214</v>
+        <v>1114.066895752006</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>832.4193116355168</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>800.5499308503654</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>366.7751860086605</v>
       </c>
       <c r="F8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>687.9235674375537</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>687.9235674375537</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="W8" t="n">
-        <v>1292.327975491451</v>
+        <v>1559.714245277141</v>
       </c>
       <c r="X8" t="n">
-        <v>873.1855120707613</v>
+        <v>1544.612185896856</v>
       </c>
       <c r="Y8" t="n">
-        <v>464.8993883704147</v>
+        <v>1540.366466236913</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1113.00182921349</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>940.4401176967148</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="D10" t="n">
-        <v>774.5621248982375</v>
+        <v>575.5992398531354</v>
       </c>
       <c r="E10" t="n">
-        <v>604.8041211489747</v>
+        <v>575.5992398531354</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>398.8921858148916</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>233.3009108407193</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>93.39873653109379</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>437.4083829648294</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1585.813254565969</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1340.421499899382</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1113.00182921349</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2208.43062647059</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1770.288153654013</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1334.378368828457</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E11" t="n">
-        <v>900.6036239867526</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F11" t="n">
-        <v>472.7361943959604</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G11" t="n">
-        <v>368.560266179277</v>
+        <v>391.8077842004231</v>
       </c>
       <c r="H11" t="n">
-        <v>79.43011162249326</v>
+        <v>102.6776296436394</v>
       </c>
       <c r="I11" t="n">
-        <v>79.01332224963326</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>79.01332224963326</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K11" t="n">
-        <v>913.3636142078112</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L11" t="n">
-        <v>1891.153477047023</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M11" t="n">
-        <v>1891.153477047023</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N11" t="n">
-        <v>1891.153477047023</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>2575.857451689672</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>3404.167326523068</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3950.666112481663</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>3950.666112481663</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>3867.0142386655</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>3867.0142386655</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>3867.0142386655</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>3867.0142386655</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3462.158784076533</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
-        <v>3043.016320655844</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2634.730196955497</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>585.1850672409261</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>478.7286060775683</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>383.6383172241216</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>289.5179025510753</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>206.1340641672369</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>120.7489744334208</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>79.01332224963326</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>79.01332224963326</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J12" t="n">
-        <v>79.01332224963326</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K12" t="n">
-        <v>79.01332224963326</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L12" t="n">
-        <v>79.01332224963326</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M12" t="n">
-        <v>79.01332224963326</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N12" t="n">
-        <v>79.01332224963326</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O12" t="n">
-        <v>922.529917249244</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P12" t="n">
-        <v>1742.253083728442</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1742.253083728442</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1742.253083728442</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1678.797646176825</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1548.619002507427</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1372.282455507395</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1173.164937569394</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>987.8421833025884</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>832.9747475414684</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>706.4889683206892</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1069.41153363619</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C13" t="n">
-        <v>896.8498221194149</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D13" t="n">
-        <v>730.9718293209376</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E13" t="n">
-        <v>561.2138255716749</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F13" t="n">
-        <v>384.5067715334311</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>218.9154965592587</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>79.01332224963326</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>79.01332224963326</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>165.5930074143231</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>440.3514619854587</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>858.5613437534198</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1318.045210934333</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1760.304014091977</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2179.973263317759</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2527.480157288101</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2695.672932152433</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2674.255110857805</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2515.013742155801</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2269.134295734256</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>2269.134295734256</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V13" t="n">
-        <v>2006.067982121365</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W13" t="n">
-        <v>1734.041577707656</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X13" t="n">
-        <v>1488.649823041069</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y13" t="n">
-        <v>1261.230152355177</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771605</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004244</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436407</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5279,13 +5279,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K14" t="n">
-        <v>936.6111322289576</v>
+        <v>388.1086717343214</v>
       </c>
       <c r="L14" t="n">
-        <v>2011.671098481817</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="M14" t="n">
-        <v>2011.671098481817</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N14" t="n">
         <v>2588.899621423628</v>
@@ -5309,19 +5309,19 @@
         <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J15" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K15" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L15" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M15" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N15" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O15" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P15" t="n">
         <v>1107.588885023173</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>949.5782250957709</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C16" t="n">
-        <v>777.0165135789958</v>
+        <v>750.3393363913028</v>
       </c>
       <c r="D16" t="n">
-        <v>611.1385207805185</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="E16" t="n">
-        <v>441.3805170312558</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F16" t="n">
-        <v>264.673462993012</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G16" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H16" t="n">
         <v>102.2608402707796</v>
@@ -5440,46 +5440,46 @@
         <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>881.8088617745698</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1341.292728955483</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1783.551532113127</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2203.220781338909</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2550.727675309251</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2718.920450173583</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878955</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2697.502628878955</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2451.62318245741</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2173.190181710515</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>1886.234673580946</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W16" t="n">
-        <v>1614.208269167237</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X16" t="n">
-        <v>1368.81651450065</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y16" t="n">
-        <v>1141.396843814758</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="17">
@@ -5513,19 +5513,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>936.6111322289576</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L17" t="n">
-        <v>2011.671098481817</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M17" t="n">
-        <v>2011.671098481817</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="O17" t="n">
         <v>3569.079287993934</v>
@@ -5549,7 +5549,7 @@
         <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257732</v>
@@ -5589,25 +5589,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5689,28 +5689,28 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309245</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173578</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.50262887895</v>
       </c>
       <c r="S19" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.50262887895</v>
       </c>
       <c r="T19" t="n">
-        <v>2454.80183470935</v>
+        <v>2451.623182457405</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2173.19018171051</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>1886.23467358094</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1614.208269167232</v>
       </c>
       <c r="X19" t="n">
         <v>1371.99516675259</v>
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
         <v>391.8077842004234</v>
@@ -5756,10 +5756,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423628</v>
@@ -5795,7 +5795,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5826,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P21" t="n">
         <v>1107.588885023173</v>
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D22" t="n">
         <v>614.3171730324584</v>
@@ -5932,28 +5932,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="23">
@@ -5987,28 +5987,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6063,25 +6063,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>982.1554751127505</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>809.5937635959755</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>643.7157707974982</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>473.9577670482354</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="26">
@@ -6224,25 +6224,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>3137.402081918264</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>4115.578073952528</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q26" t="n">
         <v>4943.887948785924</v>
@@ -6300,25 +6300,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J27" t="n">
-        <v>452.8828383974496</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>949.5782250957668</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C28" t="n">
-        <v>777.0165135789917</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D28" t="n">
-        <v>611.1385207805145</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E28" t="n">
-        <v>441.3805170312517</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F28" t="n">
-        <v>264.6734629930079</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.502628878951</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2451.623182457406</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2173.190181710511</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1886.234673580942</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>1614.208269167233</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X28" t="n">
-        <v>1368.816514500646</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y28" t="n">
-        <v>1141.396843814754</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>269.4112304877946</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>1103.761522445973</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>2178.821488698832</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>2178.821488698832</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>3304.552472135279</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>4284.732138705585</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6543,25 +6543,25 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P30" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q30" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1068.769857140658</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C31" t="n">
-        <v>896.2081456238831</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6652,19 +6652,19 @@
         <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2292.381813755403</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>2005.426305625833</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>1733.399901212125</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X31" t="n">
-        <v>1488.008146545537</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y31" t="n">
-        <v>1260.588475859645</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="32">
@@ -6698,19 +6698,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>537.5155277236975</v>
+        <v>388.1086717343205</v>
       </c>
       <c r="L32" t="n">
-        <v>537.5155277236975</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M32" t="n">
-        <v>1694.563362934248</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
-        <v>2820.294346370695</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
         <v>3569.079287993933</v>
@@ -6774,25 +6774,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J33" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6835,34 +6835,34 @@
         <v>1066.521048992528</v>
       </c>
       <c r="C34" t="n">
-        <v>910.3590448886292</v>
+        <v>910.3590448886289</v>
       </c>
       <c r="D34" t="n">
-        <v>760.880759503028</v>
+        <v>760.8807595030278</v>
       </c>
       <c r="E34" t="n">
-        <v>607.5224631666414</v>
+        <v>607.5224631666413</v>
       </c>
       <c r="F34" t="n">
-        <v>447.2151165412737</v>
+        <v>447.2151165412736</v>
       </c>
       <c r="G34" t="n">
-        <v>298.0235489799775</v>
+        <v>298.0235489799774</v>
       </c>
       <c r="H34" t="n">
-        <v>174.5210820832282</v>
+        <v>174.5210820832281</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>204.9138786708293</v>
+        <v>204.9138786708294</v>
       </c>
       <c r="K34" t="n">
-        <v>495.7456864773248</v>
+        <v>495.7456864773249</v>
       </c>
       <c r="L34" t="n">
-        <v>930.0289214806456</v>
+        <v>930.0289214806457</v>
       </c>
       <c r="M34" t="n">
         <v>1405.586141896919</v>
@@ -6874,13 +6874,13 @@
         <v>2299.660900751065</v>
       </c>
       <c r="P34" t="n">
-        <v>2663.241147956766</v>
+        <v>2663.241147956767</v>
       </c>
       <c r="Q34" t="n">
         <v>2847.507276056459</v>
       </c>
       <c r="R34" t="n">
-        <v>2842.489162174707</v>
+        <v>2842.489162174706</v>
       </c>
       <c r="S34" t="n">
         <v>2699.647500885579</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I35" t="n">
-        <v>102.2608402707796</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>931.9169956339958</v>
       </c>
       <c r="L35" t="n">
-        <v>1632.322702740237</v>
+        <v>2006.976961886855</v>
       </c>
       <c r="M35" t="n">
-        <v>1632.322702740237</v>
+        <v>3164.024797097406</v>
       </c>
       <c r="N35" t="n">
-        <v>2758.053686176684</v>
+        <v>3334.372458245846</v>
       </c>
       <c r="O35" t="n">
-        <v>3738.23335274699</v>
+        <v>3334.372458245846</v>
       </c>
       <c r="P35" t="n">
-        <v>4566.543227580387</v>
+        <v>4162.682333079242</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4709.181119037837</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>4878.335183790893</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>4811.083017387607</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4607.415497673522</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4364.592902403415</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4018.375659750117</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3629.919912574027</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.4325852620724</v>
+        <v>603.7384486671107</v>
       </c>
       <c r="C36" t="n">
-        <v>501.9761240987147</v>
+        <v>497.2819875037529</v>
       </c>
       <c r="D36" t="n">
-        <v>406.885835245268</v>
+        <v>402.1916986503062</v>
       </c>
       <c r="E36" t="n">
-        <v>312.7654205722217</v>
+        <v>308.0712839772599</v>
       </c>
       <c r="F36" t="n">
-        <v>229.3815821883833</v>
+        <v>224.6874455934215</v>
       </c>
       <c r="G36" t="n">
-        <v>143.9964924545671</v>
+        <v>139.3023558596054</v>
       </c>
       <c r="H36" t="n">
-        <v>102.2608402707796</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I36" t="n">
-        <v>128.3245134312372</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J36" t="n">
-        <v>452.8828383974496</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>283.1715819490133</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>283.1715819490133</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>283.1715819490133</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>283.1715819490133</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>283.1715819490133</v>
       </c>
       <c r="P36" t="n">
-        <v>1107.588885023173</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q36" t="n">
-        <v>1648.327823655249</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="R36" t="n">
-        <v>1765.500601749588</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="S36" t="n">
-        <v>1702.045164197971</v>
+        <v>1697.35102760301</v>
       </c>
       <c r="T36" t="n">
-        <v>1571.866520528573</v>
+        <v>1567.172383933611</v>
       </c>
       <c r="U36" t="n">
-        <v>1395.529973528541</v>
+        <v>1390.83583693358</v>
       </c>
       <c r="V36" t="n">
-        <v>1196.412455590541</v>
+        <v>1191.718318995579</v>
       </c>
       <c r="W36" t="n">
-        <v>1011.089701323735</v>
+        <v>1006.395564728773</v>
       </c>
       <c r="X36" t="n">
-        <v>856.2222655626148</v>
+        <v>851.5281289676531</v>
       </c>
       <c r="Y36" t="n">
-        <v>729.7364863418355</v>
+        <v>725.0423497468738</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1066.521048992528</v>
+        <v>1061.826912397565</v>
       </c>
       <c r="C37" t="n">
-        <v>910.359044888629</v>
+        <v>905.6649082936664</v>
       </c>
       <c r="D37" t="n">
-        <v>760.8807595030279</v>
+        <v>756.1866229080651</v>
       </c>
       <c r="E37" t="n">
-        <v>607.5224631666413</v>
+        <v>602.8283265716785</v>
       </c>
       <c r="F37" t="n">
-        <v>447.2151165412736</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G37" t="n">
-        <v>298.0235489799774</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H37" t="n">
-        <v>174.5210820832282</v>
+        <v>169.8269454882664</v>
       </c>
       <c r="I37" t="n">
-        <v>102.2608402707796</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J37" t="n">
-        <v>204.9138786708294</v>
+        <v>200.2197420758676</v>
       </c>
       <c r="K37" t="n">
-        <v>495.7456864773249</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L37" t="n">
-        <v>930.0289214806457</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M37" t="n">
-        <v>1405.586141896919</v>
+        <v>1400.892005301957</v>
       </c>
       <c r="N37" t="n">
-        <v>1863.918298289923</v>
+        <v>1859.224161694961</v>
       </c>
       <c r="O37" t="n">
-        <v>2299.660900751065</v>
+        <v>2294.966764156103</v>
       </c>
       <c r="P37" t="n">
-        <v>2663.241147956767</v>
+        <v>2658.547011361804</v>
       </c>
       <c r="Q37" t="n">
-        <v>2847.507276056459</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R37" t="n">
-        <v>2842.489162174706</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S37" t="n">
-        <v>2699.647500885579</v>
+        <v>2694.953364290617</v>
       </c>
       <c r="T37" t="n">
-        <v>2470.16776187691</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U37" t="n">
-        <v>2208.134468542892</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V37" t="n">
-        <v>1937.578667826198</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W37" t="n">
-        <v>1681.951970825366</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X37" t="n">
-        <v>1452.959923571655</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y37" t="n">
-        <v>1241.939960298639</v>
+        <v>1237.245823703676</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C38" t="n">
         <v>2003.64811180301</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E38" t="n">
         <v>1166.762996961502</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835856</v>
       </c>
       <c r="G38" t="n">
         <v>370.2971508197255</v>
@@ -7172,52 +7172,52 @@
         <v>97.56670367581786</v>
       </c>
       <c r="J38" t="n">
-        <v>532.8213911287357</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="K38" t="n">
-        <v>1367.171683086914</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="L38" t="n">
-        <v>2442.231649339773</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="M38" t="n">
-        <v>2442.231649339773</v>
+        <v>1228.461808239093</v>
       </c>
       <c r="N38" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.19279167554</v>
       </c>
       <c r="O38" t="n">
-        <v>3422.411315910079</v>
+        <v>3334.372458245846</v>
       </c>
       <c r="P38" t="n">
-        <v>4250.721190743476</v>
+        <v>4162.682333079242</v>
       </c>
       <c r="Q38" t="n">
-        <v>4797.21997670207</v>
+        <v>4709.181119037837</v>
       </c>
       <c r="R38" t="n">
         <v>4878.335183790893</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387607</v>
+        <v>4811.083017387606</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V38" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278742</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7248,25 @@
         <v>97.56670367581786</v>
       </c>
       <c r="I39" t="n">
-        <v>123.6303768362755</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J39" t="n">
-        <v>448.1887018024878</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="K39" t="n">
-        <v>1102.894748428211</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="L39" t="n">
-        <v>1102.894748428211</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="M39" t="n">
-        <v>1102.894748428211</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="N39" t="n">
-        <v>1102.894748428211</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="O39" t="n">
-        <v>1102.894748428211</v>
+        <v>283.1715819490133</v>
       </c>
       <c r="P39" t="n">
         <v>1102.894748428211</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397565</v>
+        <v>1061.826912397567</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936664</v>
+        <v>905.6649082936675</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080651</v>
+        <v>756.1866229080663</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716785</v>
+        <v>602.8283265716797</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463108</v>
+        <v>442.520979946312</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850146</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H40" t="n">
         <v>169.8269454882664</v>
@@ -7339,43 +7339,43 @@
         <v>925.334784885684</v>
       </c>
       <c r="M40" t="n">
-        <v>1400.892005301957</v>
+        <v>1400.892005301958</v>
       </c>
       <c r="N40" t="n">
-        <v>1859.224161694961</v>
+        <v>1859.224161694963</v>
       </c>
       <c r="O40" t="n">
-        <v>2294.966764156103</v>
+        <v>2294.966764156104</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361806</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290617</v>
+        <v>2694.953364290618</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281948</v>
+        <v>2465.473625281949</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.440331947929</v>
+        <v>2203.440331947931</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231237</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230404</v>
+        <v>1677.257834230405</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976692</v>
+        <v>1448.265786976693</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703676</v>
+        <v>1237.245823703678</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.648111803009</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835857</v>
       </c>
       <c r="G41" t="n">
         <v>370.2971508197255</v>
@@ -7409,28 +7409,28 @@
         <v>97.56670367581785</v>
       </c>
       <c r="J41" t="n">
-        <v>532.8213911287357</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="K41" t="n">
-        <v>1367.171683086914</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="L41" t="n">
-        <v>2442.231649339773</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="M41" t="n">
-        <v>2442.231649339773</v>
+        <v>1228.461808239092</v>
       </c>
       <c r="N41" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="O41" t="n">
-        <v>3422.411315910079</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="P41" t="n">
-        <v>4250.721190743476</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q41" t="n">
-        <v>4797.21997670207</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R41" t="n">
         <v>4878.335183790892</v>
@@ -7439,22 +7439,22 @@
         <v>4811.083017387606</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V41" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278741</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7485,25 @@
         <v>97.56670367581785</v>
       </c>
       <c r="I42" t="n">
-        <v>123.6303768362754</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024878</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="K42" t="n">
-        <v>1102.894748428211</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="L42" t="n">
-        <v>1102.894748428211</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="M42" t="n">
-        <v>1102.894748428211</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="N42" t="n">
-        <v>1102.894748428211</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="O42" t="n">
-        <v>1102.894748428211</v>
+        <v>283.1715819490133</v>
       </c>
       <c r="P42" t="n">
         <v>1102.894748428211</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397566</v>
+        <v>1061.826912397565</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936674</v>
+        <v>905.6649082936664</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080651</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716785</v>
       </c>
       <c r="F43" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463108</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850146</v>
       </c>
       <c r="H43" t="n">
         <v>169.8269454882664</v>
@@ -7570,10 +7570,10 @@
         <v>200.2197420758676</v>
       </c>
       <c r="K43" t="n">
-        <v>491.0515498823628</v>
+        <v>491.0515498823631</v>
       </c>
       <c r="L43" t="n">
-        <v>925.3347848856838</v>
+        <v>925.334784885684</v>
       </c>
       <c r="M43" t="n">
         <v>1400.892005301957</v>
@@ -7588,31 +7588,31 @@
         <v>2658.547011361804</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579745</v>
+        <v>2837.795025579744</v>
       </c>
       <c r="S43" t="n">
         <v>2694.953364290617</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.440331947931</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231237</v>
+        <v>1932.884531231236</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230405</v>
+        <v>1677.257834230404</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703677</v>
+        <v>1237.245823703676</v>
       </c>
     </row>
     <row r="44">
@@ -7631,46 +7631,46 @@
         <v>1584.138034390331</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961501</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835852</v>
+        <v>755.2952747835855</v>
       </c>
       <c r="G44" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J44" t="n">
-        <v>532.8213911287357</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="K44" t="n">
-        <v>1367.171683086914</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="L44" t="n">
-        <v>2442.231649339773</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="M44" t="n">
-        <v>2442.231649339773</v>
+        <v>1228.461808239093</v>
       </c>
       <c r="N44" t="n">
-        <v>2442.231649339773</v>
+        <v>2354.19279167554</v>
       </c>
       <c r="O44" t="n">
-        <v>3422.411315910079</v>
+        <v>3334.372458245846</v>
       </c>
       <c r="P44" t="n">
-        <v>4250.721190743476</v>
+        <v>4162.682333079242</v>
       </c>
       <c r="Q44" t="n">
-        <v>4797.21997670207</v>
+        <v>4709.181119037837</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790893</v>
       </c>
       <c r="S44" t="n">
         <v>4811.083017387606</v>
@@ -7682,13 +7682,13 @@
         <v>4364.592902403414</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750117</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W44" t="n">
         <v>3629.919912574026</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y44" t="n">
         <v>2835.290740278742</v>
@@ -7719,28 +7719,28 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="I45" t="n">
-        <v>123.6303768362754</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J45" t="n">
-        <v>448.1887018024878</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="K45" t="n">
-        <v>1102.894748428211</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="L45" t="n">
-        <v>1102.894748428211</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.894748428211</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="N45" t="n">
-        <v>1102.894748428211</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="O45" t="n">
-        <v>1102.894748428211</v>
+        <v>283.1715819490133</v>
       </c>
       <c r="P45" t="n">
         <v>1102.894748428211</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397566</v>
+        <v>1061.826912397567</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936674</v>
+        <v>905.6649082936675</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080663</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716796</v>
+        <v>602.8283265716797</v>
       </c>
       <c r="F46" t="n">
         <v>442.520979946312</v>
@@ -7801,7 +7801,7 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581786</v>
       </c>
       <c r="J46" t="n">
         <v>200.2197420758676</v>
@@ -7813,43 +7813,43 @@
         <v>925.334784885684</v>
       </c>
       <c r="M46" t="n">
-        <v>1400.892005301957</v>
+        <v>1400.892005301956</v>
       </c>
       <c r="N46" t="n">
         <v>1859.224161694961</v>
       </c>
       <c r="O46" t="n">
-        <v>2294.966764156103</v>
+        <v>2294.966764156102</v>
       </c>
       <c r="P46" t="n">
         <v>2658.547011361804</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461497</v>
+        <v>2842.813139461496</v>
       </c>
       <c r="R46" t="n">
         <v>2837.795025579745</v>
       </c>
       <c r="S46" t="n">
-        <v>2694.953364290617</v>
+        <v>2694.953364290618</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281948</v>
+        <v>2465.473625281949</v>
       </c>
       <c r="U46" t="n">
         <v>2203.44033194793</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231237</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230404</v>
+        <v>1677.257834230405</v>
       </c>
       <c r="X46" t="n">
         <v>1448.265786976693</v>
       </c>
       <c r="Y46" t="n">
-        <v>1237.245823703677</v>
+        <v>1237.245823703678</v>
       </c>
     </row>
   </sheetData>
@@ -7982,25 +7982,25 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="M2" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O2" t="n">
-        <v>407.1525905495951</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,10 +8052,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8067,16 +8067,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>424.2958575201044</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="O3" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8134,19 +8134,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>35.25505765581501</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>517.1965904184166</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>632.8234408380845</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>632.8234408380845</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8289,16 +8289,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,13 +8307,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>382.6594326491819</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>632.8234408380845</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>285.0688484348007</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8462,16 +8462,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8526,16 +8526,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,28 +8608,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8690,19 +8690,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>987.6665281204158</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>691.6201764067164</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8781,16 +8781,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>852.0369646460715</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P12" t="n">
         <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>288.7351832965068</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>583.0591140826373</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9000,13 +9000,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,22 +9161,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>583.0591140826373</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831379</v>
+        <v>807.5312715220471</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9237,13 +9237,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,10 +9255,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9404,13 +9404,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9474,13 +9474,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9492,10 +9492,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>127.53932913075</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,13 +9711,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,7 +9732,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9881,19 +9881,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>988.0565576103677</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -9948,13 +9948,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>168.8387779969848</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10130,10 +10130,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,10 +10191,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>301.8344985190274</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,22 +10346,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>288.7351832965059</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>756.3484258820586</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458549</v>
@@ -10422,16 +10422,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10589,16 +10589,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>702.7389601124037</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>172.0683445943841</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
@@ -10607,7 +10607,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,13 +10659,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>187.4796750234297</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10820,19 +10820,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1142.318287437652</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>81.93455261497274</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,13 +10896,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,10 +10914,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>187.4796750234297</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11057,19 +11057,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1142.318287437651</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>81.93455261497184</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,13 +11133,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11151,10 +11151,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>187.4796750234298</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11294,19 +11294,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1142.318287437652</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>81.93455261497184</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,13 +11370,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,10 +11388,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>187.4796750234297</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>143.9916497573912</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>60.43223892935752</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>188.9746976505468</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22705,10 +22705,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>120.9836449801877</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22720,7 +22720,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>294.2496841284522</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23470,10 +23470,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>23.6503025715113</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-9.919736762330686e-13</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>131.2385495991714</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>3.146865729420597</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-1.090339436214857e-12</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>3.146865729425883</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>160.7958207444079</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24373,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>58.66873794568212</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24610,16 +24610,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>3.146865729424633</v>
+        <v>73.6291869796181</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>111.4236523045828</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>135.3636110865066</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.108446667785756e-12</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1.151079231931362e-12</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>864641.5956803332</v>
+        <v>709792.0145883838</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>937118.4200016571</v>
+        <v>941395.4681792547</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>937118.4200016571</v>
+        <v>942107.020824724</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>776277.9716776515</v>
+        <v>935707.0789963529</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>935707.0789963531</v>
+        <v>935707.0789963529</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>935707.0789963531</v>
+        <v>935707.0789963529</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>935707.0789963529</v>
+        <v>935707.0789963531</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>935707.0789963531</v>
+        <v>935707.0789963527</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>951731.8731703749</v>
+        <v>950807.1756766886</v>
       </c>
     </row>
     <row r="14">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12353.29423898016</v>
+        <v>10109.0974115606</v>
       </c>
       <c r="C2" t="n">
         <v>13403.68299726021</v>
@@ -26320,7 +26320,7 @@
         <v>13403.68299726021</v>
       </c>
       <c r="E2" t="n">
-        <v>10927.24277601425</v>
+        <v>13171.43960343381</v>
       </c>
       <c r="F2" t="n">
         <v>13171.43960343381</v>
@@ -26344,16 +26344,16 @@
         <v>13403.68299726022</v>
       </c>
       <c r="M2" t="n">
-        <v>13403.68299726022</v>
+        <v>13403.68299726021</v>
       </c>
       <c r="N2" t="n">
         <v>13403.68299726022</v>
       </c>
       <c r="O2" t="n">
-        <v>13403.68299726021</v>
+        <v>13403.68299726022</v>
       </c>
       <c r="P2" t="n">
-        <v>13403.68299726021</v>
+        <v>13403.68299726022</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26366,16 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>67369.149392462</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>10776.30320106442</v>
       </c>
       <c r="E3" t="n">
-        <v>168210.0880864998</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
-        <v>83262.72935658728</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53668.32706338191</v>
       </c>
       <c r="L3" t="n">
-        <v>12988.56827099788</v>
+        <v>21768.7419614354</v>
       </c>
       <c r="M3" t="n">
-        <v>140394.2245962801</v>
+        <v>137577.700737852</v>
       </c>
       <c r="N3" t="n">
-        <v>56802.80065713891</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>157451.2936695341</v>
+        <v>106214.7472621081</v>
       </c>
       <c r="C4" t="n">
-        <v>181432.3864604621</v>
+        <v>137985.3773911519</v>
       </c>
       <c r="D4" t="n">
-        <v>181432.3864604621</v>
+        <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>22967.16673664866</v>
+        <v>27684.07875020262</v>
       </c>
       <c r="F4" t="n">
-        <v>27684.07875020269</v>
+        <v>27684.07875020261</v>
       </c>
       <c r="G4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.07875020262</v>
       </c>
       <c r="H4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.07875020263</v>
       </c>
       <c r="I4" t="n">
         <v>27684.07875020268</v>
@@ -26445,19 +26445,19 @@
         <v>27684.07875020268</v>
       </c>
       <c r="L4" t="n">
-        <v>33026.43656683593</v>
+        <v>33026.43656683595</v>
       </c>
       <c r="M4" t="n">
-        <v>33026.43656683595</v>
+        <v>42419.67665353605</v>
       </c>
       <c r="N4" t="n">
-        <v>42419.67665353611</v>
+        <v>42419.67665353612</v>
       </c>
       <c r="O4" t="n">
-        <v>42419.67665353611</v>
+        <v>42419.67665353609</v>
       </c>
       <c r="P4" t="n">
-        <v>42419.67665353611</v>
+        <v>42419.67665353609</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>72103.26520295553</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>60050.12490972127</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
         <v>77718.23860579252</v>
@@ -26500,7 +26500,7 @@
         <v>79083.15853826067</v>
       </c>
       <c r="M5" t="n">
-        <v>79083.15853826067</v>
+        <v>75515.61472608973</v>
       </c>
       <c r="N5" t="n">
         <v>75515.61472608973</v>
@@ -26509,7 +26509,7 @@
         <v>75515.61472608971</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.61472608971</v>
+        <v>75515.61472608973</v>
       </c>
     </row>
     <row r="6">
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-346714.0882274862</v>
+        <v>-298051.1972060498</v>
       </c>
       <c r="C6" t="n">
-        <v>-227453.4916004243</v>
+        <v>-264054.1089893092</v>
       </c>
       <c r="D6" t="n">
-        <v>-227453.4916004243</v>
+        <v>-202342.4449975818</v>
       </c>
       <c r="E6" t="n">
-        <v>-240300.1369568555</v>
+        <v>-274609.2113129937</v>
       </c>
       <c r="F6" t="n">
-        <v>-175493.6071091487</v>
+        <v>-92254.10209194396</v>
       </c>
       <c r="G6" t="n">
-        <v>-92230.87775256138</v>
+        <v>-92254.10209194396</v>
       </c>
       <c r="H6" t="n">
-        <v>-92230.87775256138</v>
+        <v>-92254.10209194398</v>
       </c>
       <c r="I6" t="n">
-        <v>-92230.87775256138</v>
+        <v>-92254.10209194402</v>
       </c>
       <c r="J6" t="n">
-        <v>-203245.3430975516</v>
+        <v>-203268.5674369342</v>
       </c>
       <c r="K6" t="n">
-        <v>-92230.87775256138</v>
+        <v>-145922.429155326</v>
       </c>
       <c r="L6" t="n">
-        <v>-111694.4803788343</v>
+        <v>-120474.6540692718</v>
       </c>
       <c r="M6" t="n">
-        <v>-239100.1367041164</v>
+        <v>-242109.3091202176</v>
       </c>
       <c r="N6" t="n">
-        <v>-161334.4090395045</v>
+        <v>-104531.6083823656</v>
       </c>
       <c r="O6" t="n">
         <v>-104531.6083823656</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>16.2357103387474</v>
+      </c>
+      <c r="M2" t="n">
         <v>16.23571033874735</v>
-      </c>
-      <c r="M2" t="n">
-        <v>16.23571033874738</v>
       </c>
       <c r="N2" t="n">
         <v>16.23571033874735</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="3">
@@ -26790,13 +26790,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>632.8234408380845</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>987.6665281204157</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26820,7 +26820,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.260503384745</v>
+        <v>1219.583795947723</v>
       </c>
       <c r="N4" t="n">
         <v>1219.583795947723</v>
@@ -26935,10 +26935,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="M2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>208.5275833179801</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>34.69176576977247</v>
       </c>
       <c r="E4" t="n">
-        <v>563.3706706003114</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
-        <v>290.5939752643295</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179801</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977247</v>
       </c>
       <c r="M4" t="n">
-        <v>563.3706706003114</v>
+        <v>552.0685893398663</v>
       </c>
       <c r="N4" t="n">
-        <v>231.9172678273075</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>208.5275833179801</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>34.69176576977247</v>
       </c>
       <c r="M4" t="n">
-        <v>563.3706706003114</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
-        <v>290.5939752643295</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
+        <v>287.5590372199086</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
         <v>400</v>
       </c>
-      <c r="E2" t="n">
-        <v>400</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>383.2782061513927</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,10 +27433,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,25 +27537,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,7 +27588,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>110.4352044624884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>101.6465624574856</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>65.20954214546714</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27667,10 +27667,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -27679,10 +27679,10 @@
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>182.5449312749879</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>51.58631836451698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>113.7278999628232</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>154.929939813087</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>48.17580493063084</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,22 +28056,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>159.0496666102677</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-4.484950034982556e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28512,7 +28512,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>3.770613451100265e-12</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="C34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="D34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="E34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="F34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="G34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="H34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="I34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="J34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="K34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="L34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="M34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="N34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="O34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="P34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="Q34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="R34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="S34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="T34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="U34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="V34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="W34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="X34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387474</v>
       </c>
       <c r="Y34" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387474</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>16.23571033874612</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874738</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="38">
@@ -30411,7 +30411,7 @@
         <v>16.23571033874735</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874735</v>
+        <v>16.2357103387485</v>
       </c>
       <c r="N40" t="n">
         <v>16.23571033874735</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874759</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874735</v>
       </c>
     </row>
   </sheetData>
@@ -34702,25 +34702,25 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="M2" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="O2" t="n">
-        <v>407.1525905495951</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,10 +34772,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -34787,16 +34787,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>424.2958575201044</v>
+        <v>288.7962490401609</v>
       </c>
       <c r="O3" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q3" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,19 +34854,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>35.25505765581501</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>310.9272166398487</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>517.1965904184166</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>632.8234408380845</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>632.8234408380845</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,16 +35009,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35027,13 +35027,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>382.6594326491819</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>632.8234408380845</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>285.0688484348007</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>409.401749030468</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,16 +35182,16 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,16 +35246,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35264,13 +35264,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35410,19 +35410,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>987.6665281204158</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>691.6201764067164</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35501,16 +35501,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>852.0369646460715</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P12" t="n">
         <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35574,7 +35574,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35647,7 +35647,7 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>288.7351832965068</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -35656,7 +35656,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>583.0591140826373</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,10 +35738,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35808,16 +35808,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080452</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,22 +35881,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N17" t="n">
-        <v>583.0591140826373</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831377</v>
+        <v>807.5312715220471</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,10 +35975,10 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36057,7 +36057,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165052</v>
       </c>
       <c r="Q19" t="n">
         <v>169.8916917821539</v>
@@ -36124,13 +36124,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36212,10 +36212,10 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>127.53932913075</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36452,7 +36452,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831377</v>
+        <v>988.0565576103677</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>170.862691669754</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>168.8387779969848</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36841,7 +36841,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36850,10 +36850,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,10 +36911,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>301.8344985190274</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36923,16 +36923,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,22 +37066,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>288.7351832965059</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>756.3484258820586</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458546</v>
@@ -37142,16 +37142,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37163,7 +37163,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778281</v>
       </c>
       <c r="K34" t="n">
         <v>293.7695028348439</v>
@@ -37233,19 +37233,19 @@
         <v>438.6699343467888</v>
       </c>
       <c r="M34" t="n">
-        <v>480.3608287033061</v>
+        <v>480.360828703306</v>
       </c>
       <c r="N34" t="n">
-        <v>462.9617741343482</v>
+        <v>462.9617741343479</v>
       </c>
       <c r="O34" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P34" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q34" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,16 +37309,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>702.7389601124037</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>172.0683445943841</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458546</v>
@@ -37327,7 +37327,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158824</v>
+        <v>187.4796750234297</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37400,7 +37400,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>103.6899377778281</v>
+        <v>103.689937777828</v>
       </c>
       <c r="K37" t="n">
         <v>293.7695028348439</v>
@@ -37470,19 +37470,19 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M37" t="n">
-        <v>480.360828703306</v>
+        <v>480.3608287033061</v>
       </c>
       <c r="N37" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900421</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552546</v>
+        <v>367.2527749552542</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1142.318287437652</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>81.93455261497274</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37634,10 +37634,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>187.4796750234297</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37707,13 +37707,13 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M40" t="n">
-        <v>480.3608287033061</v>
+        <v>480.3608287033072</v>
       </c>
       <c r="N40" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900419</v>
       </c>
       <c r="P40" t="n">
         <v>367.2527749552542</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1142.318287437651</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>81.93455261497184</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37871,10 +37871,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>187.4796750234298</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37938,7 +37938,7 @@
         <v>103.689937777828</v>
       </c>
       <c r="K43" t="n">
-        <v>293.7695028348437</v>
+        <v>293.7695028348439</v>
       </c>
       <c r="L43" t="n">
         <v>438.6699343467889</v>
@@ -37950,13 +37950,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900419</v>
+        <v>440.1440428900416</v>
       </c>
       <c r="P43" t="n">
         <v>367.2527749552542</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1142.318287437652</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>81.93455261497184</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38108,10 +38108,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>187.4796750234297</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38181,13 +38181,13 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M46" t="n">
-        <v>480.3608287033061</v>
+        <v>480.3608287033056</v>
       </c>
       <c r="N46" t="n">
-        <v>462.9617741343479</v>
+        <v>462.9617741343477</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900419</v>
       </c>
       <c r="P46" t="n">
         <v>367.2527749552542</v>
